--- a/2des/03-bcd/aula06/01.projeto_clientes/clientes_normalizados.xlsx
+++ b/2des/03-bcd/aula06/01.projeto_clientes/clientes_normalizados.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\senai2023\2des\03-bcd\aula06\01.projeto_clientes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\03-bcd\aula06\01.projeto_clientes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FCA33A-171A-4A5D-ABC5-3BF9B5700BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20370" windowHeight="12210"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dados_brutos" sheetId="1" r:id="rId1"/>
     <sheet name="cliente" sheetId="2" r:id="rId2"/>
     <sheet name="telefone" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -149,7 +150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -518,23 +519,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -554,7 +555,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -574,7 +575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -594,7 +595,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -614,7 +615,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -634,7 +635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -654,7 +655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -681,23 +682,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -717,7 +718,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -738,7 +739,7 @@
         <v>('Ana de Souza de Oliveira','2000-05-22','M',65),</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -759,7 +760,7 @@
         <v>('Ana Oliveira Oliveira','1990-08-23','T',88),</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -780,7 +781,7 @@
         <v>('Lúcia da Silva de Souza','1988-06-14','F',45.5),</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -801,7 +802,7 @@
         <v>('Marcos de Souza Castro','2002-07-13','M',98),</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -822,7 +823,7 @@
         <v>('Maria Oliveira Castro','2005-08-14','T',101),</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -850,20 +851,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -874,7 +875,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -886,7 +887,7 @@
         <v>(1,'(11)04023-4384'),</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -898,7 +899,7 @@
         <v>(1,'(14)3288-8530'),</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -910,7 +911,7 @@
         <v>(2,'(21)74746-1126'),</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -922,7 +923,7 @@
         <v>(2,'(14)64505-3435'),</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -934,7 +935,7 @@
         <v>(2,'(19)03086-1102'),</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -946,7 +947,7 @@
         <v>(3,'(14)64500-3435'),</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -958,7 +959,7 @@
         <v>(4,'(19)28260-0126'),</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -970,7 +971,7 @@
         <v>(5,'(21)34757-1544'),</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -982,7 +983,7 @@
         <v>(6,'(19)3030-4465'),</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
